--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4212"/>
+  <dimension ref="A1:F4215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84691,6 +84691,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4213">
+      <c r="A4213" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B4213" t="n">
+        <v>0.13834</v>
+      </c>
+      <c r="C4213" t="n">
+        <v>0.13953</v>
+      </c>
+      <c r="D4213" t="n">
+        <v>0.13834</v>
+      </c>
+      <c r="E4213" t="n">
+        <v>0.13928</v>
+      </c>
+      <c r="F4213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4214">
+      <c r="A4214" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B4214" t="n">
+        <v>0.13931</v>
+      </c>
+      <c r="C4214" t="n">
+        <v>0.13955</v>
+      </c>
+      <c r="D4214" t="n">
+        <v>0.13911</v>
+      </c>
+      <c r="E4214" t="n">
+        <v>0.13911</v>
+      </c>
+      <c r="F4214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4215">
+      <c r="A4215" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B4215" t="n">
+        <v>0.13911</v>
+      </c>
+      <c r="C4215" t="n">
+        <v>0.13916</v>
+      </c>
+      <c r="D4215" t="n">
+        <v>0.13881</v>
+      </c>
+      <c r="E4215" t="n">
+        <v>0.13912</v>
+      </c>
+      <c r="F4215" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4215"/>
+  <dimension ref="A1:F4223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84751,6 +84751,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4216">
+      <c r="A4216" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B4216" t="n">
+        <v>0.13911</v>
+      </c>
+      <c r="C4216" t="n">
+        <v>0.13916</v>
+      </c>
+      <c r="D4216" t="n">
+        <v>0.13881</v>
+      </c>
+      <c r="E4216" t="n">
+        <v>0.13912</v>
+      </c>
+      <c r="F4216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4217">
+      <c r="A4217" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B4217" t="n">
+        <v>0.13912</v>
+      </c>
+      <c r="C4217" t="n">
+        <v>0.14017</v>
+      </c>
+      <c r="D4217" t="n">
+        <v>0.13912</v>
+      </c>
+      <c r="E4217" t="n">
+        <v>0.14013</v>
+      </c>
+      <c r="F4217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4218">
+      <c r="A4218" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B4218" t="n">
+        <v>0.14006</v>
+      </c>
+      <c r="C4218" t="n">
+        <v>0.14006</v>
+      </c>
+      <c r="D4218" t="n">
+        <v>0.13968</v>
+      </c>
+      <c r="E4218" t="n">
+        <v>0.13981</v>
+      </c>
+      <c r="F4218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4219">
+      <c r="A4219" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B4219" t="n">
+        <v>0.13981</v>
+      </c>
+      <c r="C4219" t="n">
+        <v>0.14038</v>
+      </c>
+      <c r="D4219" t="n">
+        <v>0.13937</v>
+      </c>
+      <c r="E4219" t="n">
+        <v>0.13937</v>
+      </c>
+      <c r="F4219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4220">
+      <c r="A4220" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B4220" t="n">
+        <v>0.13937</v>
+      </c>
+      <c r="C4220" t="n">
+        <v>0.13984</v>
+      </c>
+      <c r="D4220" t="n">
+        <v>0.13937</v>
+      </c>
+      <c r="E4220" t="n">
+        <v>0.13984</v>
+      </c>
+      <c r="F4220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4221">
+      <c r="A4221" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B4221" t="n">
+        <v>0.13984</v>
+      </c>
+      <c r="C4221" t="n">
+        <v>0.14027</v>
+      </c>
+      <c r="D4221" t="n">
+        <v>0.13984</v>
+      </c>
+      <c r="E4221" t="n">
+        <v>0.13996</v>
+      </c>
+      <c r="F4221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4222">
+      <c r="A4222" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B4222" t="n">
+        <v>0.13996</v>
+      </c>
+      <c r="C4222" t="n">
+        <v>0.14046</v>
+      </c>
+      <c r="D4222" t="n">
+        <v>0.13928</v>
+      </c>
+      <c r="E4222" t="n">
+        <v>0.13928</v>
+      </c>
+      <c r="F4222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B4223" t="n">
+        <v>0.13901</v>
+      </c>
+      <c r="C4223" t="n">
+        <v>0.13999</v>
+      </c>
+      <c r="D4223" t="n">
+        <v>0.13901</v>
+      </c>
+      <c r="E4223" t="n">
+        <v>0.13942</v>
+      </c>
+      <c r="F4223" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4223"/>
+  <dimension ref="A1:F4225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84911,6 +84911,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4224">
+      <c r="A4224" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B4224" t="n">
+        <v>0.13901</v>
+      </c>
+      <c r="C4224" t="n">
+        <v>0.13999</v>
+      </c>
+      <c r="D4224" t="n">
+        <v>0.13901</v>
+      </c>
+      <c r="E4224" t="n">
+        <v>0.13952</v>
+      </c>
+      <c r="F4224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B4225" t="n">
+        <v>0.13952</v>
+      </c>
+      <c r="C4225" t="n">
+        <v>0.14052</v>
+      </c>
+      <c r="D4225" t="n">
+        <v>0.13919</v>
+      </c>
+      <c r="E4225" t="n">
+        <v>0.13919</v>
+      </c>
+      <c r="F4225" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4225"/>
+  <dimension ref="A1:F4239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84951,6 +84951,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4226">
+      <c r="A4226" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B4226" t="n">
+        <v>0.13952</v>
+      </c>
+      <c r="C4226" t="n">
+        <v>0.14052</v>
+      </c>
+      <c r="D4226" t="n">
+        <v>0.1392</v>
+      </c>
+      <c r="E4226" t="n">
+        <v>0.13941</v>
+      </c>
+      <c r="F4226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B4227" t="n">
+        <v>0.13941</v>
+      </c>
+      <c r="C4227" t="n">
+        <v>0.13999</v>
+      </c>
+      <c r="D4227" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="E4227" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="F4227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B4228" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="C4228" t="n">
+        <v>0.13949</v>
+      </c>
+      <c r="D4228" t="n">
+        <v>0.13852</v>
+      </c>
+      <c r="E4228" t="n">
+        <v>0.13854</v>
+      </c>
+      <c r="F4228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B4229" t="n">
+        <v>0.13854</v>
+      </c>
+      <c r="C4229" t="n">
+        <v>0.13973</v>
+      </c>
+      <c r="D4229" t="n">
+        <v>0.13854</v>
+      </c>
+      <c r="E4229" t="n">
+        <v>0.13868</v>
+      </c>
+      <c r="F4229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4230">
+      <c r="A4230" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B4230" t="n">
+        <v>0.13868</v>
+      </c>
+      <c r="C4230" t="n">
+        <v>0.13917</v>
+      </c>
+      <c r="D4230" t="n">
+        <v>0.13853</v>
+      </c>
+      <c r="E4230" t="n">
+        <v>0.13853</v>
+      </c>
+      <c r="F4230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4231">
+      <c r="A4231" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B4231" t="n">
+        <v>0.13853</v>
+      </c>
+      <c r="C4231" t="n">
+        <v>0.13912</v>
+      </c>
+      <c r="D4231" t="n">
+        <v>0.13814</v>
+      </c>
+      <c r="E4231" t="n">
+        <v>0.13814</v>
+      </c>
+      <c r="F4231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4232">
+      <c r="A4232" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B4232" t="n">
+        <v>0.13814</v>
+      </c>
+      <c r="C4232" t="n">
+        <v>0.13881</v>
+      </c>
+      <c r="D4232" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="E4232" t="n">
+        <v>0.13772</v>
+      </c>
+      <c r="F4232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4233">
+      <c r="A4233" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B4233" t="n">
+        <v>0.13772</v>
+      </c>
+      <c r="C4233" t="n">
+        <v>0.13852</v>
+      </c>
+      <c r="D4233" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="E4233" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="F4233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4234">
+      <c r="A4234" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B4234" t="n">
+        <v>0.13728</v>
+      </c>
+      <c r="C4234" t="n">
+        <v>0.13753</v>
+      </c>
+      <c r="D4234" t="n">
+        <v>0.13698</v>
+      </c>
+      <c r="E4234" t="n">
+        <v>0.13698</v>
+      </c>
+      <c r="F4234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4235">
+      <c r="A4235" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B4235" t="n">
+        <v>0.13801</v>
+      </c>
+      <c r="C4235" t="n">
+        <v>0.13824</v>
+      </c>
+      <c r="D4235" t="n">
+        <v>0.13671</v>
+      </c>
+      <c r="E4235" t="n">
+        <v>0.13711</v>
+      </c>
+      <c r="F4235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4236">
+      <c r="A4236" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B4236" t="n">
+        <v>0.13729</v>
+      </c>
+      <c r="C4236" t="n">
+        <v>0.13752</v>
+      </c>
+      <c r="D4236" t="n">
+        <v>0.13713</v>
+      </c>
+      <c r="E4236" t="n">
+        <v>0.13732</v>
+      </c>
+      <c r="F4236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4237">
+      <c r="A4237" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B4237" t="n">
+        <v>0.13732</v>
+      </c>
+      <c r="C4237" t="n">
+        <v>0.13819</v>
+      </c>
+      <c r="D4237" t="n">
+        <v>0.13674</v>
+      </c>
+      <c r="E4237" t="n">
+        <v>0.13719</v>
+      </c>
+      <c r="F4237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4238">
+      <c r="A4238" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B4238" t="n">
+        <v>0.13719</v>
+      </c>
+      <c r="C4238" t="n">
+        <v>0.13897</v>
+      </c>
+      <c r="D4238" t="n">
+        <v>0.13707</v>
+      </c>
+      <c r="E4238" t="n">
+        <v>0.13707</v>
+      </c>
+      <c r="F4238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4239">
+      <c r="A4239" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B4239" t="n">
+        <v>0.13707</v>
+      </c>
+      <c r="C4239" t="n">
+        <v>0.1372</v>
+      </c>
+      <c r="D4239" t="n">
+        <v>0.13707</v>
+      </c>
+      <c r="E4239" t="n">
+        <v>0.13709</v>
+      </c>
+      <c r="F4239" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4239"/>
+  <dimension ref="A1:F4247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85231,6 +85231,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4240">
+      <c r="A4240" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B4240" t="n">
+        <v>0.13707</v>
+      </c>
+      <c r="C4240" t="n">
+        <v>0.13905</v>
+      </c>
+      <c r="D4240" t="n">
+        <v>0.13707</v>
+      </c>
+      <c r="E4240" t="n">
+        <v>0.13737</v>
+      </c>
+      <c r="F4240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4241">
+      <c r="A4241" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B4241" t="n">
+        <v>0.13737</v>
+      </c>
+      <c r="C4241" t="n">
+        <v>0.13753</v>
+      </c>
+      <c r="D4241" t="n">
+        <v>0.1373</v>
+      </c>
+      <c r="E4241" t="n">
+        <v>0.13734</v>
+      </c>
+      <c r="F4241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4242">
+      <c r="A4242" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B4242" t="n">
+        <v>0.13734</v>
+      </c>
+      <c r="C4242" t="n">
+        <v>0.13737</v>
+      </c>
+      <c r="D4242" t="n">
+        <v>0.13715</v>
+      </c>
+      <c r="E4242" t="n">
+        <v>0.13715</v>
+      </c>
+      <c r="F4242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4243">
+      <c r="A4243" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B4243" t="n">
+        <v>0.13715</v>
+      </c>
+      <c r="C4243" t="n">
+        <v>0.13748</v>
+      </c>
+      <c r="D4243" t="n">
+        <v>0.13711</v>
+      </c>
+      <c r="E4243" t="n">
+        <v>0.13713</v>
+      </c>
+      <c r="F4243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4244">
+      <c r="A4244" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B4244" t="n">
+        <v>0.13713</v>
+      </c>
+      <c r="C4244" t="n">
+        <v>0.13734</v>
+      </c>
+      <c r="D4244" t="n">
+        <v>0.13712</v>
+      </c>
+      <c r="E4244" t="n">
+        <v>0.13733</v>
+      </c>
+      <c r="F4244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4245">
+      <c r="A4245" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B4245" t="n">
+        <v>0.13733</v>
+      </c>
+      <c r="C4245" t="n">
+        <v>0.13733</v>
+      </c>
+      <c r="D4245" t="n">
+        <v>0.13715</v>
+      </c>
+      <c r="E4245" t="n">
+        <v>0.13725</v>
+      </c>
+      <c r="F4245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4246">
+      <c r="A4246" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B4246" t="n">
+        <v>0.13725</v>
+      </c>
+      <c r="C4246" t="n">
+        <v>0.13775</v>
+      </c>
+      <c r="D4246" t="n">
+        <v>0.1372</v>
+      </c>
+      <c r="E4246" t="n">
+        <v>0.13774</v>
+      </c>
+      <c r="F4246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B4247" t="n">
+        <v>0.13774</v>
+      </c>
+      <c r="C4247" t="n">
+        <v>0.13795</v>
+      </c>
+      <c r="D4247" t="n">
+        <v>0.13766</v>
+      </c>
+      <c r="E4247" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="F4247" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4247"/>
+  <dimension ref="A1:F4285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85391,6 +85391,766 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4248">
+      <c r="A4248" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B4248" t="n">
+        <v>0.13774</v>
+      </c>
+      <c r="C4248" t="n">
+        <v>0.13795</v>
+      </c>
+      <c r="D4248" t="n">
+        <v>0.13766</v>
+      </c>
+      <c r="E4248" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="F4248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B4249" t="n">
+        <v>0.13769</v>
+      </c>
+      <c r="C4249" t="n">
+        <v>0.13773</v>
+      </c>
+      <c r="D4249" t="n">
+        <v>0.13747</v>
+      </c>
+      <c r="E4249" t="n">
+        <v>0.13747</v>
+      </c>
+      <c r="F4249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B4250" t="n">
+        <v>0.13747</v>
+      </c>
+      <c r="C4250" t="n">
+        <v>0.13747</v>
+      </c>
+      <c r="D4250" t="n">
+        <v>0.13687</v>
+      </c>
+      <c r="E4250" t="n">
+        <v>0.13687</v>
+      </c>
+      <c r="F4250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B4251" t="n">
+        <v>0.13687</v>
+      </c>
+      <c r="C4251" t="n">
+        <v>0.13695</v>
+      </c>
+      <c r="D4251" t="n">
+        <v>0.13662</v>
+      </c>
+      <c r="E4251" t="n">
+        <v>0.13662</v>
+      </c>
+      <c r="F4251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B4252" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="C4252" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="D4252" t="n">
+        <v>0.13641</v>
+      </c>
+      <c r="E4252" t="n">
+        <v>0.13641</v>
+      </c>
+      <c r="F4252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B4253" t="n">
+        <v>0.13641</v>
+      </c>
+      <c r="C4253" t="n">
+        <v>0.13642</v>
+      </c>
+      <c r="D4253" t="n">
+        <v>0.13611</v>
+      </c>
+      <c r="E4253" t="n">
+        <v>0.13614</v>
+      </c>
+      <c r="F4253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B4254" t="n">
+        <v>0.13614</v>
+      </c>
+      <c r="C4254" t="n">
+        <v>0.13751</v>
+      </c>
+      <c r="D4254" t="n">
+        <v>0.13614</v>
+      </c>
+      <c r="E4254" t="n">
+        <v>0.13717</v>
+      </c>
+      <c r="F4254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B4255" t="n">
+        <v>0.13717</v>
+      </c>
+      <c r="C4255" t="n">
+        <v>0.13728</v>
+      </c>
+      <c r="D4255" t="n">
+        <v>0.13711</v>
+      </c>
+      <c r="E4255" t="n">
+        <v>0.13712</v>
+      </c>
+      <c r="F4255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B4256" t="n">
+        <v>0.13712</v>
+      </c>
+      <c r="C4256" t="n">
+        <v>0.13755</v>
+      </c>
+      <c r="D4256" t="n">
+        <v>0.13712</v>
+      </c>
+      <c r="E4256" t="n">
+        <v>0.13751</v>
+      </c>
+      <c r="F4256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B4257" t="n">
+        <v>0.13751</v>
+      </c>
+      <c r="C4257" t="n">
+        <v>0.13752</v>
+      </c>
+      <c r="D4257" t="n">
+        <v>0.13738</v>
+      </c>
+      <c r="E4257" t="n">
+        <v>0.13738</v>
+      </c>
+      <c r="F4257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B4258" t="n">
+        <v>0.13739</v>
+      </c>
+      <c r="C4258" t="n">
+        <v>0.13807</v>
+      </c>
+      <c r="D4258" t="n">
+        <v>0.13737</v>
+      </c>
+      <c r="E4258" t="n">
+        <v>0.13743</v>
+      </c>
+      <c r="F4258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B4259" t="n">
+        <v>0.13743</v>
+      </c>
+      <c r="C4259" t="n">
+        <v>0.13743</v>
+      </c>
+      <c r="D4259" t="n">
+        <v>0.13708</v>
+      </c>
+      <c r="E4259" t="n">
+        <v>0.13711</v>
+      </c>
+      <c r="F4259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B4260" t="n">
+        <v>0.13711</v>
+      </c>
+      <c r="C4260" t="n">
+        <v>0.13712</v>
+      </c>
+      <c r="D4260" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="E4260" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="F4260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B4261" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="C4261" t="n">
+        <v>0.13719</v>
+      </c>
+      <c r="D4261" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="E4261" t="n">
+        <v>0.13719</v>
+      </c>
+      <c r="F4261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B4262" t="n">
+        <v>0.13719</v>
+      </c>
+      <c r="C4262" t="n">
+        <v>0.13719</v>
+      </c>
+      <c r="D4262" t="n">
+        <v>0.13682</v>
+      </c>
+      <c r="E4262" t="n">
+        <v>0.13682</v>
+      </c>
+      <c r="F4262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B4263" t="n">
+        <v>0.13682</v>
+      </c>
+      <c r="C4263" t="n">
+        <v>0.13701</v>
+      </c>
+      <c r="D4263" t="n">
+        <v>0.13682</v>
+      </c>
+      <c r="E4263" t="n">
+        <v>0.13698</v>
+      </c>
+      <c r="F4263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B4264" t="n">
+        <v>0.13698</v>
+      </c>
+      <c r="C4264" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="D4264" t="n">
+        <v>0.13674</v>
+      </c>
+      <c r="E4264" t="n">
+        <v>0.13674</v>
+      </c>
+      <c r="F4264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B4265" t="n">
+        <v>0.13674</v>
+      </c>
+      <c r="C4265" t="n">
+        <v>0.1369</v>
+      </c>
+      <c r="D4265" t="n">
+        <v>0.13674</v>
+      </c>
+      <c r="E4265" t="n">
+        <v>0.13676</v>
+      </c>
+      <c r="F4265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B4266" t="n">
+        <v>0.13676</v>
+      </c>
+      <c r="C4266" t="n">
+        <v>0.13702</v>
+      </c>
+      <c r="D4266" t="n">
+        <v>0.13675</v>
+      </c>
+      <c r="E4266" t="n">
+        <v>0.13675</v>
+      </c>
+      <c r="F4266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B4267" t="n">
+        <v>0.1368</v>
+      </c>
+      <c r="C4267" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="D4267" t="n">
+        <v>0.1368</v>
+      </c>
+      <c r="E4267" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="F4267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B4268" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="C4268" t="n">
+        <v>0.13701</v>
+      </c>
+      <c r="D4268" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="E4268" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="F4268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B4269" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="C4269" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="D4269" t="n">
+        <v>0.13692</v>
+      </c>
+      <c r="E4269" t="n">
+        <v>0.13692</v>
+      </c>
+      <c r="F4269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B4270" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="C4270" t="n">
+        <v>0.13887</v>
+      </c>
+      <c r="D4270" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="E4270" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="F4270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B4271" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="C4271" t="n">
+        <v>0.13698</v>
+      </c>
+      <c r="D4271" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="E4271" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="F4271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4272">
+      <c r="A4272" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B4272" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="C4272" t="n">
+        <v>0.13883</v>
+      </c>
+      <c r="D4272" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="E4272" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="F4272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4273">
+      <c r="A4273" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B4273" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="C4273" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="D4273" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="E4273" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="F4273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4274">
+      <c r="A4274" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B4274" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="C4274" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="D4274" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="E4274" t="n">
+        <v>0.13711</v>
+      </c>
+      <c r="F4274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4275">
+      <c r="A4275" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B4275" t="n">
+        <v>0.13711</v>
+      </c>
+      <c r="C4275" t="n">
+        <v>0.13759</v>
+      </c>
+      <c r="D4275" t="n">
+        <v>0.13703</v>
+      </c>
+      <c r="E4275" t="n">
+        <v>0.13704</v>
+      </c>
+      <c r="F4275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4276">
+      <c r="A4276" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B4276" t="n">
+        <v>0.13704</v>
+      </c>
+      <c r="C4276" t="n">
+        <v>0.13711</v>
+      </c>
+      <c r="D4276" t="n">
+        <v>0.13694</v>
+      </c>
+      <c r="E4276" t="n">
+        <v>0.13694</v>
+      </c>
+      <c r="F4276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4277">
+      <c r="A4277" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B4277" t="n">
+        <v>0.13696</v>
+      </c>
+      <c r="C4277" t="n">
+        <v>0.13708</v>
+      </c>
+      <c r="D4277" t="n">
+        <v>0.13691</v>
+      </c>
+      <c r="E4277" t="n">
+        <v>0.13691</v>
+      </c>
+      <c r="F4277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4278">
+      <c r="A4278" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B4278" t="n">
+        <v>0.13691</v>
+      </c>
+      <c r="C4278" t="n">
+        <v>0.13691</v>
+      </c>
+      <c r="D4278" t="n">
+        <v>0.13685</v>
+      </c>
+      <c r="E4278" t="n">
+        <v>0.13685</v>
+      </c>
+      <c r="F4278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4279">
+      <c r="A4279" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B4279" t="n">
+        <v>0.13685</v>
+      </c>
+      <c r="C4279" t="n">
+        <v>0.13685</v>
+      </c>
+      <c r="D4279" t="n">
+        <v>0.13675</v>
+      </c>
+      <c r="E4279" t="n">
+        <v>0.13675</v>
+      </c>
+      <c r="F4279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4280">
+      <c r="A4280" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B4280" t="n">
+        <v>0.13675</v>
+      </c>
+      <c r="C4280" t="n">
+        <v>0.13677</v>
+      </c>
+      <c r="D4280" t="n">
+        <v>0.13673</v>
+      </c>
+      <c r="E4280" t="n">
+        <v>0.13675</v>
+      </c>
+      <c r="F4280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4281">
+      <c r="A4281" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B4281" t="n">
+        <v>0.13675</v>
+      </c>
+      <c r="C4281" t="n">
+        <v>0.13694</v>
+      </c>
+      <c r="D4281" t="n">
+        <v>0.13666</v>
+      </c>
+      <c r="E4281" t="n">
+        <v>0.13666</v>
+      </c>
+      <c r="F4281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4282">
+      <c r="A4282" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B4282" t="n">
+        <v>0.13666</v>
+      </c>
+      <c r="C4282" t="n">
+        <v>0.13672</v>
+      </c>
+      <c r="D4282" t="n">
+        <v>0.13666</v>
+      </c>
+      <c r="E4282" t="n">
+        <v>0.13671</v>
+      </c>
+      <c r="F4282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4283">
+      <c r="A4283" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B4283" t="n">
+        <v>0.13676</v>
+      </c>
+      <c r="C4283" t="n">
+        <v>0.13676</v>
+      </c>
+      <c r="D4283" t="n">
+        <v>0.13659</v>
+      </c>
+      <c r="E4283" t="n">
+        <v>0.13666</v>
+      </c>
+      <c r="F4283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4284">
+      <c r="A4284" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B4284" t="n">
+        <v>0.13666</v>
+      </c>
+      <c r="C4284" t="n">
+        <v>0.13668</v>
+      </c>
+      <c r="D4284" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="E4284" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="F4284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4285">
+      <c r="A4285" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B4285" t="n">
+        <v>0.13685</v>
+      </c>
+      <c r="C4285" t="n">
+        <v>0.13697</v>
+      </c>
+      <c r="D4285" t="n">
+        <v>0.13685</v>
+      </c>
+      <c r="E4285" t="n">
+        <v>0.13692</v>
+      </c>
+      <c r="F4285" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4285"/>
+  <dimension ref="A1:F4290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86151,6 +86151,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4286">
+      <c r="A4286" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B4286" t="n">
+        <v>0.13685</v>
+      </c>
+      <c r="C4286" t="n">
+        <v>0.13697</v>
+      </c>
+      <c r="D4286" t="n">
+        <v>0.13678</v>
+      </c>
+      <c r="E4286" t="n">
+        <v>0.13678</v>
+      </c>
+      <c r="F4286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B4287" t="n">
+        <v>0.13678</v>
+      </c>
+      <c r="C4287" t="n">
+        <v>0.13683</v>
+      </c>
+      <c r="D4287" t="n">
+        <v>0.13664</v>
+      </c>
+      <c r="E4287" t="n">
+        <v>0.13664</v>
+      </c>
+      <c r="F4287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B4288" t="n">
+        <v>0.13664</v>
+      </c>
+      <c r="C4288" t="n">
+        <v>0.13667</v>
+      </c>
+      <c r="D4288" t="n">
+        <v>0.13664</v>
+      </c>
+      <c r="E4288" t="n">
+        <v>0.13667</v>
+      </c>
+      <c r="F4288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B4289" t="n">
+        <v>0.13667</v>
+      </c>
+      <c r="C4289" t="n">
+        <v>0.13667</v>
+      </c>
+      <c r="D4289" t="n">
+        <v>0.13663</v>
+      </c>
+      <c r="E4289" t="n">
+        <v>0.13663</v>
+      </c>
+      <c r="F4289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4290" t="n">
+        <v>0.13663</v>
+      </c>
+      <c r="C4290" t="n">
+        <v>0.13791</v>
+      </c>
+      <c r="D4290" t="n">
+        <v>0.13663</v>
+      </c>
+      <c r="E4290" t="n">
+        <v>0.13663</v>
+      </c>
+      <c r="F4290" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4290"/>
+  <dimension ref="A1:F4301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86251,6 +86251,226 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4291">
+      <c r="A4291" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4291" t="n">
+        <v>0.13663</v>
+      </c>
+      <c r="C4291" t="n">
+        <v>0.13791</v>
+      </c>
+      <c r="D4291" t="n">
+        <v>0.13663</v>
+      </c>
+      <c r="E4291" t="n">
+        <v>0.1367</v>
+      </c>
+      <c r="F4291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B4292" t="n">
+        <v>0.1367</v>
+      </c>
+      <c r="C4292" t="n">
+        <v>0.1367</v>
+      </c>
+      <c r="D4292" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="E4292" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="F4292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B4293" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="C4293" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="D4293" t="n">
+        <v>0.13662</v>
+      </c>
+      <c r="E4293" t="n">
+        <v>0.13662</v>
+      </c>
+      <c r="F4293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B4294" t="n">
+        <v>0.13662</v>
+      </c>
+      <c r="C4294" t="n">
+        <v>0.13668</v>
+      </c>
+      <c r="D4294" t="n">
+        <v>0.13662</v>
+      </c>
+      <c r="E4294" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="F4294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B4295" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="C4295" t="n">
+        <v>0.13694</v>
+      </c>
+      <c r="D4295" t="n">
+        <v>0.13665</v>
+      </c>
+      <c r="E4295" t="n">
+        <v>0.13694</v>
+      </c>
+      <c r="F4295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B4296" t="n">
+        <v>0.13694</v>
+      </c>
+      <c r="C4296" t="n">
+        <v>0.13759</v>
+      </c>
+      <c r="D4296" t="n">
+        <v>0.13694</v>
+      </c>
+      <c r="E4296" t="n">
+        <v>0.13752</v>
+      </c>
+      <c r="F4296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B4297" t="n">
+        <v>0.13752</v>
+      </c>
+      <c r="C4297" t="n">
+        <v>0.13752</v>
+      </c>
+      <c r="D4297" t="n">
+        <v>0.13729</v>
+      </c>
+      <c r="E4297" t="n">
+        <v>0.13735</v>
+      </c>
+      <c r="F4297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B4298" t="n">
+        <v>0.13738</v>
+      </c>
+      <c r="C4298" t="n">
+        <v>0.13757</v>
+      </c>
+      <c r="D4298" t="n">
+        <v>0.13732</v>
+      </c>
+      <c r="E4298" t="n">
+        <v>0.13732</v>
+      </c>
+      <c r="F4298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B4299" t="n">
+        <v>0.13732</v>
+      </c>
+      <c r="C4299" t="n">
+        <v>0.13738</v>
+      </c>
+      <c r="D4299" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="E4299" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="F4299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B4300" t="n">
+        <v>0.13726</v>
+      </c>
+      <c r="C4300" t="n">
+        <v>0.13729</v>
+      </c>
+      <c r="D4300" t="n">
+        <v>0.13715</v>
+      </c>
+      <c r="E4300" t="n">
+        <v>0.13715</v>
+      </c>
+      <c r="F4300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B4301" t="n">
+        <v>0.13715</v>
+      </c>
+      <c r="C4301" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="D4301" t="n">
+        <v>0.13701</v>
+      </c>
+      <c r="E4301" t="n">
+        <v>0.13701</v>
+      </c>
+      <c r="F4301" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4312"/>
+  <dimension ref="A1:F4317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -86641,6 +86641,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4313" spans="1:6">
+      <c r="A4313" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B4313">
+        <v>0.13996</v>
+      </c>
+      <c r="C4313">
+        <v>0.1409</v>
+      </c>
+      <c r="D4313">
+        <v>0.1398</v>
+      </c>
+      <c r="E4313">
+        <v>0.13984</v>
+      </c>
+      <c r="F4313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:6">
+      <c r="A4314" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B4314">
+        <v>0.13984</v>
+      </c>
+      <c r="C4314">
+        <v>0.14088</v>
+      </c>
+      <c r="D4314">
+        <v>0.13977</v>
+      </c>
+      <c r="E4314">
+        <v>0.13977</v>
+      </c>
+      <c r="F4314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:6">
+      <c r="A4315" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B4315">
+        <v>0.13977</v>
+      </c>
+      <c r="C4315">
+        <v>0.14096</v>
+      </c>
+      <c r="D4315">
+        <v>0.13977</v>
+      </c>
+      <c r="E4315">
+        <v>0.13989</v>
+      </c>
+      <c r="F4315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:6">
+      <c r="A4316" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B4316">
+        <v>0.13989</v>
+      </c>
+      <c r="C4316">
+        <v>0.14148</v>
+      </c>
+      <c r="D4316">
+        <v>0.13989</v>
+      </c>
+      <c r="E4316">
+        <v>0.14021</v>
+      </c>
+      <c r="F4316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:6">
+      <c r="A4317" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B4317">
+        <v>0.14021</v>
+      </c>
+      <c r="C4317">
+        <v>0.14021</v>
+      </c>
+      <c r="D4317">
+        <v>0.14021</v>
+      </c>
+      <c r="E4317">
+        <v>0.14021</v>
+      </c>
+      <c r="F4317">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4317"/>
+  <dimension ref="A1:F4327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -86741,6 +86741,206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4318" spans="1:6">
+      <c r="A4318" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B4318">
+        <v>0.14021</v>
+      </c>
+      <c r="C4318">
+        <v>0.14105</v>
+      </c>
+      <c r="D4318">
+        <v>0.14009</v>
+      </c>
+      <c r="E4318">
+        <v>0.14009</v>
+      </c>
+      <c r="F4318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:6">
+      <c r="A4319" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B4319">
+        <v>0.14009</v>
+      </c>
+      <c r="C4319">
+        <v>0.14125</v>
+      </c>
+      <c r="D4319">
+        <v>0.13998</v>
+      </c>
+      <c r="E4319">
+        <v>0.14004</v>
+      </c>
+      <c r="F4319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:6">
+      <c r="A4320" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B4320">
+        <v>0.14009</v>
+      </c>
+      <c r="C4320">
+        <v>0.14125</v>
+      </c>
+      <c r="D4320">
+        <v>0.13998</v>
+      </c>
+      <c r="E4320">
+        <v>0.14004</v>
+      </c>
+      <c r="F4320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:6">
+      <c r="A4321" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B4321">
+        <v>0.14009</v>
+      </c>
+      <c r="C4321">
+        <v>0.14125</v>
+      </c>
+      <c r="D4321">
+        <v>0.13998</v>
+      </c>
+      <c r="E4321">
+        <v>0.14004</v>
+      </c>
+      <c r="F4321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:6">
+      <c r="A4322" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B4322">
+        <v>0.14004</v>
+      </c>
+      <c r="C4322">
+        <v>0.1411</v>
+      </c>
+      <c r="D4322">
+        <v>0.13997</v>
+      </c>
+      <c r="E4322">
+        <v>0.13997</v>
+      </c>
+      <c r="F4322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:6">
+      <c r="A4323" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B4323">
+        <v>0.13997</v>
+      </c>
+      <c r="C4323">
+        <v>0.14109</v>
+      </c>
+      <c r="D4323">
+        <v>0.13989</v>
+      </c>
+      <c r="E4323">
+        <v>0.13989</v>
+      </c>
+      <c r="F4323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:6">
+      <c r="A4324" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B4324">
+        <v>0.13989</v>
+      </c>
+      <c r="C4324">
+        <v>0.14131</v>
+      </c>
+      <c r="D4324">
+        <v>0.13975</v>
+      </c>
+      <c r="E4324">
+        <v>0.14105</v>
+      </c>
+      <c r="F4324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:6">
+      <c r="A4325" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B4325">
+        <v>0.13989</v>
+      </c>
+      <c r="C4325">
+        <v>0.14131</v>
+      </c>
+      <c r="D4325">
+        <v>0.13964</v>
+      </c>
+      <c r="E4325">
+        <v>0.13964</v>
+      </c>
+      <c r="F4325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:6">
+      <c r="A4326" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B4326">
+        <v>0.14043</v>
+      </c>
+      <c r="C4326">
+        <v>0.14043</v>
+      </c>
+      <c r="D4326">
+        <v>0.13968</v>
+      </c>
+      <c r="E4326">
+        <v>0.13981</v>
+      </c>
+      <c r="F4326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:6">
+      <c r="A4327" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B4327">
+        <v>0.13981</v>
+      </c>
+      <c r="C4327">
+        <v>0.14051</v>
+      </c>
+      <c r="D4327">
+        <v>0.13977</v>
+      </c>
+      <c r="E4327">
+        <v>0.14023</v>
+      </c>
+      <c r="F4327">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4327"/>
+  <dimension ref="A1:F4343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -86941,6 +86941,326 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4328" spans="1:6">
+      <c r="A4328" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B4328">
+        <v>0.13981</v>
+      </c>
+      <c r="C4328">
+        <v>0.14051</v>
+      </c>
+      <c r="D4328">
+        <v>0.13954</v>
+      </c>
+      <c r="E4328">
+        <v>0.13954</v>
+      </c>
+      <c r="F4328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:6">
+      <c r="A4329" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B4329">
+        <v>0.13954</v>
+      </c>
+      <c r="C4329">
+        <v>0.14052</v>
+      </c>
+      <c r="D4329">
+        <v>0.13917</v>
+      </c>
+      <c r="E4329">
+        <v>0.13932</v>
+      </c>
+      <c r="F4329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:6">
+      <c r="A4330" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B4330">
+        <v>0.13932</v>
+      </c>
+      <c r="C4330">
+        <v>0.13948</v>
+      </c>
+      <c r="D4330">
+        <v>0.13932</v>
+      </c>
+      <c r="E4330">
+        <v>0.13932</v>
+      </c>
+      <c r="F4330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:6">
+      <c r="A4331" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B4331">
+        <v>0.13932</v>
+      </c>
+      <c r="C4331">
+        <v>0.14077</v>
+      </c>
+      <c r="D4331">
+        <v>0.13921</v>
+      </c>
+      <c r="E4331">
+        <v>0.13938</v>
+      </c>
+      <c r="F4331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:6">
+      <c r="A4332" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B4332">
+        <v>0.1394</v>
+      </c>
+      <c r="C4332">
+        <v>0.14156</v>
+      </c>
+      <c r="D4332">
+        <v>0.1394</v>
+      </c>
+      <c r="E4332">
+        <v>0.14063</v>
+      </c>
+      <c r="F4332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:6">
+      <c r="A4333" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B4333">
+        <v>0.14063</v>
+      </c>
+      <c r="C4333">
+        <v>0.14127</v>
+      </c>
+      <c r="D4333">
+        <v>0.14039</v>
+      </c>
+      <c r="E4333">
+        <v>0.14045</v>
+      </c>
+      <c r="F4333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:6">
+      <c r="A4334" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B4334">
+        <v>0.14045</v>
+      </c>
+      <c r="C4334">
+        <v>0.14045</v>
+      </c>
+      <c r="D4334">
+        <v>0.14045</v>
+      </c>
+      <c r="E4334">
+        <v>0.14045</v>
+      </c>
+      <c r="F4334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:6">
+      <c r="A4335" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B4335">
+        <v>0.14045</v>
+      </c>
+      <c r="C4335">
+        <v>0.14124</v>
+      </c>
+      <c r="D4335">
+        <v>0.1399</v>
+      </c>
+      <c r="E4335">
+        <v>0.14018</v>
+      </c>
+      <c r="F4335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:6">
+      <c r="A4336" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B4336">
+        <v>0.14018</v>
+      </c>
+      <c r="C4336">
+        <v>0.14047</v>
+      </c>
+      <c r="D4336">
+        <v>0.13992</v>
+      </c>
+      <c r="E4336">
+        <v>0.13992</v>
+      </c>
+      <c r="F4336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:6">
+      <c r="A4337" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B4337">
+        <v>0.14018</v>
+      </c>
+      <c r="C4337">
+        <v>0.14047</v>
+      </c>
+      <c r="D4337">
+        <v>0.13992</v>
+      </c>
+      <c r="E4337">
+        <v>0.13992</v>
+      </c>
+      <c r="F4337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:6">
+      <c r="A4338" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B4338">
+        <v>0.14018</v>
+      </c>
+      <c r="C4338">
+        <v>0.14047</v>
+      </c>
+      <c r="D4338">
+        <v>0.13992</v>
+      </c>
+      <c r="E4338">
+        <v>0.13992</v>
+      </c>
+      <c r="F4338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:6">
+      <c r="A4339" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B4339">
+        <v>0.14018</v>
+      </c>
+      <c r="C4339">
+        <v>0.14047</v>
+      </c>
+      <c r="D4339">
+        <v>0.13995</v>
+      </c>
+      <c r="E4339">
+        <v>0.13995</v>
+      </c>
+      <c r="F4339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:6">
+      <c r="A4340" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B4340">
+        <v>0.14018</v>
+      </c>
+      <c r="C4340">
+        <v>0.14047</v>
+      </c>
+      <c r="D4340">
+        <v>0.1399</v>
+      </c>
+      <c r="E4340">
+        <v>0.13992</v>
+      </c>
+      <c r="F4340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:6">
+      <c r="A4341" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B4341">
+        <v>0.14018</v>
+      </c>
+      <c r="C4341">
+        <v>0.14047</v>
+      </c>
+      <c r="D4341">
+        <v>0.1399</v>
+      </c>
+      <c r="E4341">
+        <v>0.14001</v>
+      </c>
+      <c r="F4341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:6">
+      <c r="A4342" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B4342">
+        <v>0.14018</v>
+      </c>
+      <c r="C4342">
+        <v>0.14189</v>
+      </c>
+      <c r="D4342">
+        <v>0.1399</v>
+      </c>
+      <c r="E4342">
+        <v>0.14085</v>
+      </c>
+      <c r="F4342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:6">
+      <c r="A4343" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B4343">
+        <v>0.14018</v>
+      </c>
+      <c r="C4343">
+        <v>0.14189</v>
+      </c>
+      <c r="D4343">
+        <v>0.1399</v>
+      </c>
+      <c r="E4343">
+        <v>0.14085</v>
+      </c>
+      <c r="F4343">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/CNYUSD.xlsx
+++ b/GlobalReserves/FXData/CNYUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4352"/>
+  <dimension ref="A1:F4364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87491,6 +87491,246 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4353">
+      <c r="A4353" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B4353" t="n">
+        <v>0.13983</v>
+      </c>
+      <c r="C4353" t="n">
+        <v>0.14073</v>
+      </c>
+      <c r="D4353" t="n">
+        <v>0.13965</v>
+      </c>
+      <c r="E4353" t="n">
+        <v>0.13965</v>
+      </c>
+      <c r="F4353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B4354" t="n">
+        <v>0.13965</v>
+      </c>
+      <c r="C4354" t="n">
+        <v>0.14084</v>
+      </c>
+      <c r="D4354" t="n">
+        <v>0.13955</v>
+      </c>
+      <c r="E4354" t="n">
+        <v>0.14003</v>
+      </c>
+      <c r="F4354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B4355" t="n">
+        <v>0.14003</v>
+      </c>
+      <c r="C4355" t="n">
+        <v>0.1408</v>
+      </c>
+      <c r="D4355" t="n">
+        <v>0.13969</v>
+      </c>
+      <c r="E4355" t="n">
+        <v>0.13974</v>
+      </c>
+      <c r="F4355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B4356" t="n">
+        <v>0.14082</v>
+      </c>
+      <c r="C4356" t="n">
+        <v>0.14098</v>
+      </c>
+      <c r="D4356" t="n">
+        <v>0.13946</v>
+      </c>
+      <c r="E4356" t="n">
+        <v>0.13946</v>
+      </c>
+      <c r="F4356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B4357" t="n">
+        <v>0.13946</v>
+      </c>
+      <c r="C4357" t="n">
+        <v>0.14062</v>
+      </c>
+      <c r="D4357" t="n">
+        <v>0.13939</v>
+      </c>
+      <c r="E4357" t="n">
+        <v>0.13941</v>
+      </c>
+      <c r="F4357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B4358" t="n">
+        <v>0.13941</v>
+      </c>
+      <c r="C4358" t="n">
+        <v>0.14084</v>
+      </c>
+      <c r="D4358" t="n">
+        <v>0.13931</v>
+      </c>
+      <c r="E4358" t="n">
+        <v>0.13949</v>
+      </c>
+      <c r="F4358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B4359" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="C4359" t="n">
+        <v>0.14085</v>
+      </c>
+      <c r="D4359" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="E4359" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="F4359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4360" t="n">
+        <v>0.1395</v>
+      </c>
+      <c r="C4360" t="n">
+        <v>0.14065</v>
+      </c>
+      <c r="D4360" t="n">
+        <v>0.13939</v>
+      </c>
+      <c r="E4360" t="n">
+        <v>0.13941</v>
+      </c>
+      <c r="F4360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B4361" t="n">
+        <v>0.13929</v>
+      </c>
+      <c r="C4361" t="n">
+        <v>0.14054</v>
+      </c>
+      <c r="D4361" t="n">
+        <v>0.13904</v>
+      </c>
+      <c r="E4361" t="n">
+        <v>0.13904</v>
+      </c>
+      <c r="F4361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B4362" t="n">
+        <v>0.13904</v>
+      </c>
+      <c r="C4362" t="n">
+        <v>0.14045</v>
+      </c>
+      <c r="D4362" t="n">
+        <v>0.13893</v>
+      </c>
+      <c r="E4362" t="n">
+        <v>0.13893</v>
+      </c>
+      <c r="F4362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B4363" t="n">
+        <v>0.13893</v>
+      </c>
+      <c r="C4363" t="n">
+        <v>0.14065</v>
+      </c>
+      <c r="D4363" t="n">
+        <v>0.13892</v>
+      </c>
+      <c r="E4363" t="n">
+        <v>0.13892</v>
+      </c>
+      <c r="F4363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B4364" t="n">
+        <v>0.13892</v>
+      </c>
+      <c r="C4364" t="n">
+        <v>0.14075</v>
+      </c>
+      <c r="D4364" t="n">
+        <v>0.13892</v>
+      </c>
+      <c r="E4364" t="n">
+        <v>0.14055</v>
+      </c>
+      <c r="F4364" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
